--- a/_site/log.xlsx
+++ b/_site/log.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emory-my.sharepoint.com/personal/asshah4_emory_edu/Documents/projects/patient-log/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="370" documentId="13_ncr:1_{3CB9D789-FF1C-4735-9260-A83070EE7DFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4B223071-8B0C-44B8-9BE3-8B3DDB1EDB70}"/>
+  <xr:revisionPtr revIDLastSave="399" documentId="13_ncr:1_{3CB9D789-FF1C-4735-9260-A83070EE7DFA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{D314085D-13DF-431C-9286-4368057F24AF}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3123" uniqueCount="553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3164" uniqueCount="559">
   <si>
     <t>SITE</t>
   </si>
@@ -1689,6 +1689,24 @@
   </si>
   <si>
     <t>B2909</t>
+  </si>
+  <si>
+    <t>200194594</t>
+  </si>
+  <si>
+    <t>031742414</t>
+  </si>
+  <si>
+    <t>LAA evaluation</t>
+  </si>
+  <si>
+    <t>360J, manual</t>
+  </si>
+  <si>
+    <t>converted to sinus bradycardia</t>
+  </si>
+  <si>
+    <t>031686454</t>
   </si>
 </sst>
 </file>
@@ -2063,11 +2081,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I635"/>
+  <dimension ref="A1:I642"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="165" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A626" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A636" sqref="A636"/>
+      <pane ySplit="1" topLeftCell="A633" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C642" sqref="C642"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15663,6 +15681,161 @@
         <v>69</v>
       </c>
     </row>
+    <row r="636" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A636" t="s">
+        <v>9</v>
+      </c>
+      <c r="B636" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="C636" s="1">
+        <v>44179</v>
+      </c>
+      <c r="G636" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="637" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A637" t="s">
+        <v>9</v>
+      </c>
+      <c r="B637" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="C637" s="1">
+        <v>44179</v>
+      </c>
+      <c r="D637" t="s">
+        <v>63</v>
+      </c>
+      <c r="E637" t="s">
+        <v>49</v>
+      </c>
+      <c r="F637" t="s">
+        <v>84</v>
+      </c>
+      <c r="G637" t="s">
+        <v>75</v>
+      </c>
+      <c r="H637" t="s">
+        <v>91</v>
+      </c>
+      <c r="I637" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="638" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A638" t="s">
+        <v>9</v>
+      </c>
+      <c r="B638" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="C638" s="1">
+        <v>44179</v>
+      </c>
+      <c r="D638" t="s">
+        <v>63</v>
+      </c>
+      <c r="E638" t="s">
+        <v>49</v>
+      </c>
+      <c r="F638" t="s">
+        <v>84</v>
+      </c>
+      <c r="G638" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="639" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A639" t="s">
+        <v>9</v>
+      </c>
+      <c r="B639" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="C639" s="1">
+        <v>44179</v>
+      </c>
+      <c r="D639" t="s">
+        <v>63</v>
+      </c>
+      <c r="E639" t="s">
+        <v>49</v>
+      </c>
+      <c r="F639" t="s">
+        <v>84</v>
+      </c>
+      <c r="G639" t="s">
+        <v>86</v>
+      </c>
+      <c r="H639" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="640" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A640" t="s">
+        <v>9</v>
+      </c>
+      <c r="B640" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="C640" s="1">
+        <v>44179</v>
+      </c>
+      <c r="D640" t="s">
+        <v>63</v>
+      </c>
+      <c r="E640" t="s">
+        <v>49</v>
+      </c>
+      <c r="F640" t="s">
+        <v>84</v>
+      </c>
+      <c r="G640" t="s">
+        <v>86</v>
+      </c>
+      <c r="H640" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="641" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A641" t="s">
+        <v>9</v>
+      </c>
+      <c r="B641" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="C641" s="1">
+        <v>44179</v>
+      </c>
+      <c r="D641" t="s">
+        <v>63</v>
+      </c>
+      <c r="E641" t="s">
+        <v>49</v>
+      </c>
+      <c r="F641" t="s">
+        <v>84</v>
+      </c>
+      <c r="G641" t="s">
+        <v>86</v>
+      </c>
+      <c r="H641" t="s">
+        <v>556</v>
+      </c>
+      <c r="I641" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="642" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A642" t="s">
+        <v>9</v>
+      </c>
+      <c r="B642" s="4" t="s">
+        <v>558</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
